--- a/Iodide_embedded_in_watermolecules.xlsx
+++ b/Iodide_embedded_in_watermolecules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Iodide_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94C016-9529-0542-931B-0F273A3B6B51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B130A9-F463-6C47-A059-6132E16FA9D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1100" windowWidth="19060" windowHeight="14880" activeTab="1" xr2:uid="{C5B3EFC0-D4B7-4842-B3DB-D64B3E587944}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="13200" windowHeight="14880" activeTab="1" xr2:uid="{C5B3EFC0-D4B7-4842-B3DB-D64B3E587944}"/>
   </bookViews>
   <sheets>
     <sheet name="Embedded_Iodide_orb_1300_100" sheetId="1" r:id="rId1"/>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE835919-4071-D942-AC1D-79996019E410}">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="T8" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,11 +1609,11 @@
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5">
         <f>AVERAGE(B9:B58)</f>
-        <v>33210.74854146783</v>
+        <v>33210.313165467836</v>
       </c>
       <c r="D5">
         <f>AVERAGE(D9:D58)</f>
-        <v>5205.9421885289767</v>
+        <v>5205.8877665289765</v>
       </c>
       <c r="F5">
         <f>AVERAGE(F9:F58)</f>
@@ -1641,23 +1641,23 @@
       </c>
       <c r="T5">
         <f>AVERAGE(T9:T58)</f>
-        <v>201.19848064092898</v>
+        <v>201.31276684092896</v>
       </c>
       <c r="V5">
         <f>AVERAGE(V9:V58)</f>
-        <v>148.74102797253261</v>
+        <v>148.8271916638968</v>
       </c>
       <c r="X5">
         <f>AVERAGE(X9:X58)</f>
-        <v>137.84218986491237</v>
+        <v>137.93697907320697</v>
       </c>
       <c r="Z5">
         <f>AVERAGE(Z9:Z58)</f>
-        <v>55.705212022335402</v>
+        <v>55.773594489830394</v>
       </c>
       <c r="AB5">
         <f>AVERAGE(AB9:AB58)</f>
-        <v>53.920462809972598</v>
+        <v>54.011912472101393</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -2329,39 +2329,39 @@
         <v>622.87118787156999</v>
       </c>
       <c r="S15">
-        <v>7.3242540800000002</v>
+        <v>7.4342540799999997</v>
       </c>
       <c r="T15">
         <f t="shared" si="8"/>
-        <v>199.30027777088</v>
+        <v>202.29348777087998</v>
       </c>
       <c r="U15">
-        <v>5.3986771899999999</v>
+        <v>5.4661164500000003</v>
       </c>
       <c r="V15">
         <f t="shared" si="9"/>
-        <v>146.90340501708999</v>
+        <v>148.73849472095</v>
       </c>
       <c r="W15">
-        <v>4.9931705500000003</v>
+        <v>5.0672449500000001</v>
       </c>
       <c r="X15">
         <f t="shared" si="10"/>
-        <v>135.86916383605001</v>
+        <v>137.88480233445</v>
       </c>
       <c r="Y15">
-        <v>1.9938626800000001</v>
+        <v>2.0453385499999999</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>54.254997385480003</v>
+        <v>55.655707284049996</v>
       </c>
       <c r="AA15">
-        <v>1.9122772299999999</v>
+        <v>1.9832718300000001</v>
       </c>
       <c r="AB15">
         <f t="shared" si="12"/>
-        <v>52.034975705529995</v>
+        <v>53.966809766129998</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -2422,39 +2422,39 @@
         <v>622.69631447529991</v>
       </c>
       <c r="S16">
-        <v>7.3237314600000003</v>
+        <v>7.4237314599999999</v>
       </c>
       <c r="T16">
         <f t="shared" si="8"/>
-        <v>199.28605675806</v>
+        <v>202.00715675805998</v>
       </c>
       <c r="U16">
-        <v>5.3983046999999997</v>
+        <v>5.45916479</v>
       </c>
       <c r="V16">
         <f t="shared" si="9"/>
-        <v>146.89326919169997</v>
+        <v>148.54933310068998</v>
       </c>
       <c r="W16">
-        <v>4.9897627199999999</v>
+        <v>5.05304194</v>
       </c>
       <c r="X16">
         <f t="shared" si="10"/>
-        <v>135.77643337391999</v>
+        <v>137.49832422934</v>
       </c>
       <c r="Y16">
-        <v>1.99503202</v>
+        <v>2.0692083999999999</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>54.286816296219996</v>
+        <v>56.305229772399997</v>
       </c>
       <c r="AA16">
-        <v>1.90819235</v>
+        <v>2.00523579</v>
       </c>
       <c r="AB16">
         <f t="shared" si="12"/>
-        <v>51.923822035849994</v>
+        <v>54.564471081689994</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
@@ -2522,18 +2522,18 @@
         <v>201.04496328100001</v>
       </c>
       <c r="U17">
-        <v>5.45916479</v>
+        <v>5.48919055</v>
       </c>
       <c r="V17">
         <f t="shared" si="9"/>
-        <v>148.54933310068998</v>
+        <v>149.36636405605</v>
       </c>
       <c r="W17">
-        <v>5.05304194</v>
+        <v>5.08986275</v>
       </c>
       <c r="X17">
         <f t="shared" si="10"/>
-        <v>137.49832422934</v>
+        <v>138.50025529024998</v>
       </c>
       <c r="Y17">
         <v>2.0266274000000002</v>
@@ -2924,11 +2924,11 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1220.8653585</v>
+        <v>1220.4653585000001</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>33220.967270143497</v>
+        <v>33210.082870143502</v>
       </c>
       <c r="C22">
         <v>191.33722911000001</v>
@@ -5256,11 +5256,11 @@
         <v>33207.132784408408</v>
       </c>
       <c r="C47">
-        <v>191.53467867000001</v>
+        <v>191.43467867000001</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>5211.8501412893702</v>
+        <v>5209.1290412893704</v>
       </c>
       <c r="E47">
         <v>178.71181078000001</v>
@@ -5993,11 +5993,11 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1220.9671491199999</v>
+        <v>1220.5671491200001</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>33223.737094704316</v>
+        <v>33212.852694704321</v>
       </c>
       <c r="C55">
         <v>191.26067209999999</v>
